--- a/biology/Botanique/Arnebia_densiflora/Arnebia_densiflora.xlsx
+++ b/biology/Botanique/Arnebia_densiflora/Arnebia_densiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'Arnebia densiflora est une plante herbacée vivace de la famille des Boraginacées, originaire de Grèce et de Turquie.
 Synonymes :
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arnebia densiflora est une plante velue, de 25 à 40 cm de haut, avec une racine épaisse et ligneuse. Les feuilles basales, lancéolées, mesurent de 10 à 15 cm de long. Les fleurs jaunes de 12 à 16 mm de diamètre sont réunies en cymes denses. La floraison a lieu en été.
 </t>
@@ -545,7 +559,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante des régions montagneuses qui préfère les sols rocailleux et secs et les endroits ensoleillés.
 </t>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arnebia est cultivée comme plante de rocaille.
 Sur les autres projets Wikimedia :
